--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170802" sheetId="3" r:id="rId1"/>
-    <sheet name="20170731" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="20170803" sheetId="4" r:id="rId1"/>
+    <sheet name="20170802" sheetId="3" r:id="rId2"/>
+    <sheet name="20170731" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里记录的是整个团队的待处理任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是本人正在处理的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为需要等待资源而被挂起的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码已完成，正在测试中的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、角色维护界面2、角色菜单维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +124,38 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端暂时还没引入测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划中的任务和计划的工作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>使用AngularIS重构</t>
     </r>
     <r>
@@ -168,6 +184,9 @@
   </si>
   <si>
     <r>
+      <t>使用AngularIS重构</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -176,6 +195,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>角色维护</t>
     </r>
     <r>
@@ -186,12 +240,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>改造完成                  2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>改造完成</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端暂时还没引入测试模块</t>
+    <r>
+      <t>使用AngularIS重构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端页面（20170803）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,12 +412,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,14 +458,63 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="1936747"/>
+          <a:ext cx="10812780" cy="5370833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>8277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254914</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285394</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>151361</xdr:rowOff>
     </xdr:to>
@@ -398,7 +552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -790,94 +944,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="7" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -898,94 +1052,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1006,11 +1160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
@@ -1019,7 +1173,7 @@
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,64 +1190,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1105,6 +1259,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1113,93 +1269,85 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="7" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1219,93 +1367,85 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="7" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="2736" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170803" sheetId="4" r:id="rId1"/>
-    <sheet name="20170802" sheetId="3" r:id="rId2"/>
-    <sheet name="20170731" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="20170804" sheetId="5" r:id="rId1"/>
+    <sheet name="20170803" sheetId="4" r:id="rId2"/>
+    <sheet name="20170802" sheetId="3" r:id="rId3"/>
+    <sheet name="20170731" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,166 @@
         <scheme val="minor"/>
       </rPr>
       <t>前端页面（20170803）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员维护界面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色维护界面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                  2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                  3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色菜单维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用AngularIS重构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色菜单维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-菜单界面：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面弹出框的优化：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误消息模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息编辑模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功消息模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                1、shiro安全机制的登录页面的优化                       2、前端引入单元测试模块                                      时间：20170807（预计一天时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、登录界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的改造                              2、前端单元测试模块</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +582,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,6 +615,275 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1518478</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F505ABB6-AE65-4EB3-84FF-A38A9A414647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="2125980"/>
+          <a:ext cx="11597945" cy="5344392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>32180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1480073</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>67580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935CD175-1307-4509-A89A-4D943E4E6D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="7918880"/>
+          <a:ext cx="11551920" cy="5117940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>51849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1449593</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>25609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF533A00-0269-4AD5-96DB-AC1434ED949C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="13546869"/>
+          <a:ext cx="11506200" cy="5406820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>14131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666283</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>94604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DFA245-7C62-4521-8112-7D8825924A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="19467991"/>
+          <a:ext cx="10715270" cy="3059893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>107794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641873</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>22066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C69C8-0C10-434E-9DA2-7ED0379F9843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="22891594"/>
+          <a:ext cx="10706100" cy="3769992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37904</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>143780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>375172</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>52408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A172B00A-5DD5-464A-81E8-1063EC0151BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647504" y="26958560"/>
+          <a:ext cx="10424355" cy="4290128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -503,7 +932,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -552,7 +981,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -942,22 +1371,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="7" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -974,64 +1403,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1052,20 +1516,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1082,64 +1546,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1160,94 +1624,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1268,86 +1732,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="7" customFormat="1">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1359,6 +1831,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1370,7 +1844,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
@@ -1379,7 +1853,7 @@
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="7" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,56 +1870,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2736" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="3192" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170804" sheetId="5" r:id="rId1"/>
-    <sheet name="20170803" sheetId="4" r:id="rId2"/>
-    <sheet name="20170802" sheetId="3" r:id="rId3"/>
-    <sheet name="20170731" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="20170807" sheetId="2" r:id="rId1"/>
+    <sheet name="20170804" sheetId="5" r:id="rId2"/>
+    <sheet name="20170803" sheetId="4" r:id="rId3"/>
+    <sheet name="20170802" sheetId="3" r:id="rId4"/>
+    <sheet name="20170731" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,20 +429,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、登录界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的改造                              2、前端单元测试模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">                1、shiro安全机制的登录页面的优化                       2、前端引入单元测试模块                                      时间：20170807（预计一天时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、登录界面</t>
-    </r>
+    <t>shiro安全机制的登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端引入单元测试模块                                           时间：20170808（预计一天时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端暂时还没引入测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                  √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                   √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色菜单维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成         √shiro安全机制的登录页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -447,9 +551,19 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的改造                              2、前端单元测试模块</t>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端引入单元测试模块               ◆前端引入MD5加密模块</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +610,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -615,6 +742,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="699246" y="1993914"/>
+          <a:ext cx="11564472" cy="6050915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -883,7 +1059,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -932,7 +1108,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -981,7 +1157,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1371,19 +1547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F153"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1405,19 +1581,19 @@
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1461,41 +1637,6 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1513,6 +1654,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F153"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -1620,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -1728,7 +2012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -1836,12 +2120,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1932,4 +2216,200 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="5016" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170807" sheetId="2" r:id="rId1"/>
-    <sheet name="20170804" sheetId="5" r:id="rId2"/>
-    <sheet name="20170803" sheetId="4" r:id="rId3"/>
-    <sheet name="20170802" sheetId="3" r:id="rId4"/>
-    <sheet name="20170731" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="20170811" sheetId="8" r:id="rId1"/>
+    <sheet name="20170809" sheetId="7" r:id="rId2"/>
+    <sheet name="20170808" sheetId="6" r:id="rId3"/>
+    <sheet name="20170807" sheetId="2" r:id="rId4"/>
+    <sheet name="20170804" sheetId="5" r:id="rId5"/>
+    <sheet name="20170803" sheetId="4" r:id="rId6"/>
+    <sheet name="20170802" sheetId="3" r:id="rId7"/>
+    <sheet name="20170731" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,11 +464,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>前端暂时还没引入测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                  √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                   √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色菜单维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成         √shiro安全机制的登录页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划中的任务和计划的工作时间</t>
+  </si>
+  <si>
+    <t>当前正在做的任务</t>
+  </si>
+  <si>
+    <t>被挂起的任务</t>
+  </si>
+  <si>
+    <t>测试中的任务</t>
+  </si>
+  <si>
+    <t>已完成的任务</t>
+  </si>
+  <si>
+    <t>前端暂时还没引入测试模块</t>
+  </si>
+  <si>
+    <t>前端引入单元测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端引入单元测试模块               ◆前端引入MD5加密模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>前端引入单元测试模块                                           时间：20170808（预计一天时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端暂时还没引入测试模块</t>
+    <t>前端整合Karma和Jasmine测试模块，并完成测试用例的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,8 +691,111 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>改造完成         √shiro安全机制的登录页面</t>
-    </r>
+      <t>改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在测试中…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用jasmine做前端测试时出现angular的依赖注入的错误，暂时没找到解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                  √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人员维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成                   √</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色菜单维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端整合Karma和Jasmine测试模块，并完成测试用例的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解决测试出现的问题                                           2、引入ngGrid模块优化表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入表单校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -552,6 +807,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>◆表格分页实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                              ◆深入表单校验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>◆</t>
     </r>
     <r>
@@ -563,8 +864,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>前端引入单元测试模块               ◆前端引入MD5加密模块</t>
-    </r>
+      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试（下周重点）    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +1017,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,6 +1030,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,6 +1053,285 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586739</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1436486</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586739" y="3573000"/>
+          <a:ext cx="11151987" cy="4100339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1535474</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601979" y="8813752"/>
+          <a:ext cx="11235735" cy="3423967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385059</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2453640"/>
+          <a:ext cx="13247619" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1532371</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>159387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763000"/>
+          <a:ext cx="9228571" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>982175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>122957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="1767840"/>
+          <a:ext cx="6438095" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479954</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>89108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9113520"/>
+          <a:ext cx="16085714" cy="3419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -790,7 +1380,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1059,7 +1649,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1108,7 +1698,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1157,7 +1747,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1547,22 +2137,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" s="3" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1579,64 +2169,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="85.2" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1653,133 +2253,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F153"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>25</v>
-      </c>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1791,103 +2348,93 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1899,8 +2446,230 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="82.2" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1908,20 +2677,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" s="3" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1938,64 +2707,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2014,96 +2783,131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2125,19 +2929,19 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" s="3" customFormat="1">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2154,56 +2958,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2215,6 +3027,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2222,20 +3036,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2252,56 +3066,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2313,6 +3135,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2320,11 +3144,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
@@ -2333,73 +3265,73 @@
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5016" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="5472" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170811" sheetId="8" r:id="rId1"/>
-    <sheet name="20170809" sheetId="7" r:id="rId2"/>
-    <sheet name="20170808" sheetId="6" r:id="rId3"/>
-    <sheet name="20170807" sheetId="2" r:id="rId4"/>
-    <sheet name="20170804" sheetId="5" r:id="rId5"/>
-    <sheet name="20170803" sheetId="4" r:id="rId6"/>
-    <sheet name="20170802" sheetId="3" r:id="rId7"/>
-    <sheet name="20170731" sheetId="1" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="20170814" sheetId="9" r:id="rId1"/>
+    <sheet name="20170811" sheetId="8" r:id="rId2"/>
+    <sheet name="20170809" sheetId="7" r:id="rId3"/>
+    <sheet name="20170808" sheetId="6" r:id="rId4"/>
+    <sheet name="20170807" sheetId="2" r:id="rId5"/>
+    <sheet name="20170804" sheetId="5" r:id="rId6"/>
+    <sheet name="20170803" sheetId="4" r:id="rId7"/>
+    <sheet name="20170802" sheetId="3" r:id="rId8"/>
+    <sheet name="20170731" sheetId="1" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,6 +870,80 @@
   </si>
   <si>
     <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试（下周重点）    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆登录页面引入谷歌验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                              </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码 </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1109,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1053,6 +1139,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>734029</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>130548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617221" y="3268980"/>
+          <a:ext cx="8422608" cy="5677908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1145,7 +1280,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1238,7 +1373,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1331,7 +1466,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1380,7 +1515,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1649,7 +1784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1698,7 +1833,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1747,7 +1882,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2137,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2149,94 +2284,85 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" s="3" customFormat="1">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:7" ht="13.8" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="85.2" customHeight="1">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="114.6" customHeight="1">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2248,8 +2374,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2451,6 +2576,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" ht="85.2" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2566,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2673,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2781,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F153"/>
   <sheetViews>
@@ -2924,7 +3167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3032,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3140,7 +3383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3246,102 +3489,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5472" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="5928" windowWidth="16356" windowHeight="7716"/>
   </bookViews>
   <sheets>
-    <sheet name="20170814" sheetId="9" r:id="rId1"/>
+    <sheet name="20170815" sheetId="9" r:id="rId1"/>
     <sheet name="20170811" sheetId="8" r:id="rId2"/>
     <sheet name="20170809" sheetId="7" r:id="rId3"/>
     <sheet name="20170808" sheetId="6" r:id="rId4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,10 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -920,7 +916,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                              </t>
+      <t xml:space="preserve">               ◆彻底消除JSP页面                                                         </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,8 +938,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码 </t>
-    </r>
+      <t xml:space="preserve">角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    前端国际化（2017.08.16）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在测试中…..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,6 +1098,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,9 +1114,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1118,8 +1122,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,16 +1146,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556261</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>734029</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>130548</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,8 +1178,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617221" y="3268980"/>
-          <a:ext cx="8422608" cy="5677908"/>
+          <a:off x="556261" y="3177540"/>
+          <a:ext cx="7002779" cy="4720763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2110740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>55805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="3185160"/>
+          <a:ext cx="3086100" cy="4810685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2274,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2305,64 +2353,64 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:7" ht="114.6" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2413,55 +2461,55 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2511,55 +2559,55 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2609,63 +2657,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="85.2" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
@@ -2727,63 +2775,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" ht="82.2" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
@@ -2844,63 +2892,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2951,63 +2999,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3059,63 +3107,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
@@ -3202,63 +3250,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3310,63 +3358,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3418,63 +3466,63 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5928" windowWidth="16356" windowHeight="7716"/>
+    <workbookView xWindow="0" yWindow="6840" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20170815" sheetId="9" r:id="rId1"/>
-    <sheet name="20170811" sheetId="8" r:id="rId2"/>
-    <sheet name="20170809" sheetId="7" r:id="rId3"/>
-    <sheet name="20170808" sheetId="6" r:id="rId4"/>
-    <sheet name="20170807" sheetId="2" r:id="rId5"/>
-    <sheet name="20170804" sheetId="5" r:id="rId6"/>
-    <sheet name="20170803" sheetId="4" r:id="rId7"/>
-    <sheet name="20170802" sheetId="3" r:id="rId8"/>
-    <sheet name="20170731" sheetId="1" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
+    <sheet name="20170823" sheetId="12" r:id="rId2"/>
+    <sheet name="20170817" sheetId="13" r:id="rId3"/>
+    <sheet name="20170815" sheetId="9" r:id="rId4"/>
+    <sheet name="20170811" sheetId="8" r:id="rId5"/>
+    <sheet name="20170809" sheetId="7" r:id="rId6"/>
+    <sheet name="20170808" sheetId="6" r:id="rId7"/>
+    <sheet name="20170807" sheetId="2" r:id="rId8"/>
+    <sheet name="20170804" sheetId="5" r:id="rId9"/>
+    <sheet name="20170803" sheetId="4" r:id="rId10"/>
+    <sheet name="20170802" sheetId="3" r:id="rId11"/>
+    <sheet name="20170731" sheetId="1" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,6 +902,36 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    前端国际化（2017.08.16）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在测试中…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -938,16 +970,74 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    前端国际化（2017.08.16）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在测试中…..</t>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           ◆前端引入MD5加密模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端整合Karma和Jasmine自动化单元测试             （计划开发时间：2017.08.21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前端国际化国际化                           （计划时间是2017.08.16，                         实际时间是2017.08.16~2017.08.17）                                                                                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                ◆区域维护界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌维护界面的前端增删改逻辑界面                    （计划开发时间：2017.08.24）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1045,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,12 +1098,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1082,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1221,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1143,6 +1251,334 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233466</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594359" y="1980306"/>
+          <a:ext cx="11892067" cy="5769234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285394</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1760877"/>
+          <a:ext cx="11380114" cy="5225624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439698</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="5705776"/>
+          <a:ext cx="7815858" cy="3492455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563502</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640079" y="1683774"/>
+          <a:ext cx="8000623" cy="3839631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1083346</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4922520"/>
+          <a:ext cx="8779546" cy="6804660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2180</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1423121</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>170208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611780" y="12062460"/>
+          <a:ext cx="9117141" cy="4947948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584004</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1521713</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>48289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584004" y="17655540"/>
+          <a:ext cx="9243509" cy="5016529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1235,7 +1671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1328,7 +1764,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1421,7 +1857,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1514,7 +1950,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1563,7 +1999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1832,7 +2268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1870,148 +2306,6 @@
         <a:xfrm>
           <a:off x="579120" y="1936747"/>
           <a:ext cx="10812780" cy="5370833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>8277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285394</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>151361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1760877"/>
-          <a:ext cx="11380114" cy="5225624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>97456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439698</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>84711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="701040" y="5705776"/>
-          <a:ext cx="7815858" cy="3492455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563502</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>90345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="640079" y="1683774"/>
-          <a:ext cx="8000623" cy="3839631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,121 +2614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" s="3" customFormat="1">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="13.8" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="114.6" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
@@ -2443,7 +2629,7 @@
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2460,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="9"/>
@@ -2469,42 +2655,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2524,7 +2710,331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2532,7 +3042,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
@@ -2541,7 +3051,7 @@
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="9"/>
@@ -2567,42 +3077,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2624,106 +3134,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="85.2" customHeight="1">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2735,20 +3235,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F49"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
@@ -2757,91 +3256,81 @@
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="82.2" customHeight="1">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2859,102 +3348,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
+    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>60</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:D9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="F3:F9"/>
   </mergeCells>
@@ -2966,22 +3456,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2998,64 +3488,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3074,22 +3574,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F153"/>
+  <dimension ref="B2:F49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3106,98 +3606,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" t="s">
-        <v>25</v>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3210,8 +3685,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3219,89 +3693,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3310,16 +3784,15 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="D3:D9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="F3:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3327,20 +3800,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3357,59 +3830,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3433,96 +3906,131 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6840" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7296" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
-    <sheet name="20170823" sheetId="12" r:id="rId2"/>
-    <sheet name="20170817" sheetId="13" r:id="rId3"/>
-    <sheet name="20170815" sheetId="9" r:id="rId4"/>
-    <sheet name="20170811" sheetId="8" r:id="rId5"/>
-    <sheet name="20170809" sheetId="7" r:id="rId6"/>
-    <sheet name="20170808" sheetId="6" r:id="rId7"/>
-    <sheet name="20170807" sheetId="2" r:id="rId8"/>
-    <sheet name="20170804" sheetId="5" r:id="rId9"/>
-    <sheet name="20170803" sheetId="4" r:id="rId10"/>
-    <sheet name="20170802" sheetId="3" r:id="rId11"/>
-    <sheet name="20170731" sheetId="1" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="20170823" sheetId="12" r:id="rId4"/>
+    <sheet name="20170817" sheetId="13" r:id="rId5"/>
+    <sheet name="20170815" sheetId="9" r:id="rId6"/>
+    <sheet name="20170811" sheetId="8" r:id="rId7"/>
+    <sheet name="20170809" sheetId="7" r:id="rId8"/>
+    <sheet name="20170808" sheetId="6" r:id="rId9"/>
+    <sheet name="20170807" sheetId="2" r:id="rId10"/>
+    <sheet name="20170804" sheetId="5" r:id="rId11"/>
+    <sheet name="20170803" sheetId="4" r:id="rId12"/>
+    <sheet name="20170802" sheetId="3" r:id="rId13"/>
+    <sheet name="20170731" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,6 +1039,60 @@
       </rPr>
       <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单维护界面的前端增删改逻辑界面                    （计划开发时间：下周）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,6 +1252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,6 +1267,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,18 +1287,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,23 +1309,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594359</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52446</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>233466</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>481591</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,8 +1341,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="594359" y="1980306"/>
-          <a:ext cx="11892067" cy="5769234"/>
+          <a:off x="647700" y="3356335"/>
+          <a:ext cx="12086851" cy="4925675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65958</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447299</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="675558" y="8549640"/>
+          <a:ext cx="12024701" cy="4211156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929640" y="13091608"/>
+          <a:ext cx="11742420" cy="4206881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,6 +1443,55 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="1936747"/>
+          <a:ext cx="10812780" cy="5370833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1348,7 +1540,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1442,6 +1634,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233466</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594359" y="1980306"/>
+          <a:ext cx="11892067" cy="5769234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1578,7 +1819,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1671,7 +1912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1764,7 +2005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1857,7 +2098,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1950,7 +2191,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1999,7 +2240,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2257,55 +2498,6 @@
         <a:xfrm>
           <a:off x="647504" y="26958560"/>
           <a:ext cx="10424355" cy="4290128"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="579120" y="1936747"/>
-          <a:ext cx="10812780" cy="5370833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2617,7 +2809,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2647,55 +2839,55 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2711,6 +2903,257 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F153"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2745,63 +3188,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2818,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2853,63 +3296,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2926,7 +3369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -2961,63 +3404,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3034,12 +3477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3069,55 +3512,55 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3132,12 +3575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3162,68 +3605,68 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>69</v>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3239,7 +3682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3269,68 +3712,68 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
+      <c r="F3" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3346,7 +3789,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
@@ -3381,63 +3931,63 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="5"/>
     </row>
   </sheetData>
@@ -3454,7 +4004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
@@ -3489,63 +4039,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -3572,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F49"/>
   <sheetViews>
@@ -3607,63 +4157,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -3689,7 +4239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3724,63 +4274,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3794,255 +4344,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F153"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7296" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="7752" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="20170828" sheetId="10" r:id="rId2"/>
+    <sheet name="20170825" sheetId="14" r:id="rId3"/>
     <sheet name="20170823" sheetId="12" r:id="rId4"/>
     <sheet name="20170817" sheetId="13" r:id="rId5"/>
     <sheet name="20170815" sheetId="9" r:id="rId6"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,6 +1093,72 @@
   </si>
   <si>
     <t>菜单维护界面的前端增删改逻辑界面                    （计划开发时间：下周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单维护界面的前端增删逻辑界面                       （计划开发时间：20170829）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单维护的查、改界面及拖拽功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击编辑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单树展示：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,22 +1376,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>72115</xdr:rowOff>
+      <xdr:colOff>812094</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481591</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90510</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58673</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE6E32-058E-4541-8D7F-A2C0C02D3190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,8 +1407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="3356335"/>
-          <a:ext cx="12086851" cy="4925675"/>
+          <a:off x="1421694" y="4671060"/>
+          <a:ext cx="12718739" cy="4961633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,22 +1420,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65958</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447299</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>12536</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91063</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>35363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B3187-B552-4A15-B10D-B9EA6E2FAD49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,8 +1451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="675558" y="8549640"/>
-          <a:ext cx="12024701" cy="4211156"/>
+          <a:off x="1455420" y="10302908"/>
+          <a:ext cx="12717403" cy="4637175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,22 +1464,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>707043</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365397</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>18057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D507E9D-CA8C-4222-9225-6F501DFB23C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,8 +1495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929640" y="13091608"/>
-          <a:ext cx="11742420" cy="4206881"/>
+          <a:off x="1316643" y="15925800"/>
+          <a:ext cx="12520914" cy="5481597"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,804 +1509,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="579120" y="1936747"/>
-          <a:ext cx="10812780" cy="5370833"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>8277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285394</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>151361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1760877"/>
-          <a:ext cx="11380114" cy="5225624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>97456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439698</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>84711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="701040" y="5705776"/>
-          <a:ext cx="7815858" cy="3492455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563502</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>90345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="640079" y="1683774"/>
-          <a:ext cx="8000623" cy="3839631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594359</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>233466</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="594359" y="1980306"/>
-          <a:ext cx="11892067" cy="5769234"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1083346</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="4922520"/>
-          <a:ext cx="8779546" cy="6804660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2180</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1423121</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>170208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611780" y="12062460"/>
-          <a:ext cx="9117141" cy="4947948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>584004</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1521713</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>48289</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="584004" y="17655540"/>
-          <a:ext cx="9243509" cy="5016529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556261</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133523</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="556261" y="3177540"/>
-          <a:ext cx="7002779" cy="4720763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2110740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>55805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8183880" y="3185160"/>
-          <a:ext cx="3086100" cy="4810685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>586739</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>37320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1436486</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="586739" y="3573000"/>
-          <a:ext cx="11151987" cy="4100339"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>20272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1535474</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="601979" y="8813752"/>
-          <a:ext cx="11235735" cy="3423967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385059</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>128845</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="2453640"/>
-          <a:ext cx="13247619" cy="5561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1532371</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>159387</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="8763000"/>
-          <a:ext cx="9228571" cy="5066667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>982175</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>122957</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="1767840"/>
-          <a:ext cx="6438095" cy="6942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>479954</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>89108</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="9113520"/>
-          <a:ext cx="16085714" cy="3419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>21679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>143436</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>155888</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="699246" y="1993914"/>
-          <a:ext cx="11564472" cy="6050915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2498,6 +1766,941 @@
         <a:xfrm>
           <a:off x="647504" y="26958560"/>
           <a:ext cx="10424355" cy="4290128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="1936747"/>
+          <a:ext cx="10812780" cy="5370833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285394</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1760877"/>
+          <a:ext cx="11380114" cy="5225624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439698</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="5705776"/>
+          <a:ext cx="7815858" cy="3492455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563502</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640079" y="1683774"/>
+          <a:ext cx="8000623" cy="3839631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481591</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3356335"/>
+          <a:ext cx="12086851" cy="4925675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65958</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447299</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="675558" y="8549640"/>
+          <a:ext cx="12024701" cy="4211156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929640" y="13091608"/>
+          <a:ext cx="11742420" cy="4206881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233466</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594359" y="1980306"/>
+          <a:ext cx="11892067" cy="5769234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1083346</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4922520"/>
+          <a:ext cx="8779546" cy="6804660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2180</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1423121</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>170208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611780" y="12062460"/>
+          <a:ext cx="9117141" cy="4947948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584004</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1521713</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>48289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584004" y="17655540"/>
+          <a:ext cx="9243509" cy="5016529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556261</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556261" y="3177540"/>
+          <a:ext cx="7002779" cy="4720763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2110740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>55805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="3185160"/>
+          <a:ext cx="3086100" cy="4810685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586739</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1436486</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586739" y="3573000"/>
+          <a:ext cx="11151987" cy="4100339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1535474</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601979" y="8813752"/>
+          <a:ext cx="11235735" cy="3423967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385059</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2453640"/>
+          <a:ext cx="13247619" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1532371</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>159387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763000"/>
+          <a:ext cx="9228571" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>982175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>122957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="1767840"/>
+          <a:ext cx="6438095" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479954</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>89108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9113520"/>
+          <a:ext cx="16085714" cy="3419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="699246" y="1993914"/>
+          <a:ext cx="11564472" cy="6050915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3479,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3507,17 +3710,25 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
+      <c r="B3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -3525,42 +3736,57 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3572,6 +3798,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3579,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,23 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7752" windowWidth="16356" windowHeight="7716" tabRatio="798" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9120" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="11" r:id="rId1"/>
-    <sheet name="20170828" sheetId="10" r:id="rId2"/>
-    <sheet name="20170825" sheetId="14" r:id="rId3"/>
-    <sheet name="20170823" sheetId="12" r:id="rId4"/>
-    <sheet name="20170817" sheetId="13" r:id="rId5"/>
-    <sheet name="20170815" sheetId="9" r:id="rId6"/>
-    <sheet name="20170811" sheetId="8" r:id="rId7"/>
-    <sheet name="20170809" sheetId="7" r:id="rId8"/>
-    <sheet name="20170808" sheetId="6" r:id="rId9"/>
-    <sheet name="20170807" sheetId="2" r:id="rId10"/>
-    <sheet name="20170804" sheetId="5" r:id="rId11"/>
-    <sheet name="20170803" sheetId="4" r:id="rId12"/>
-    <sheet name="20170802" sheetId="3" r:id="rId13"/>
-    <sheet name="20170731" sheetId="1" r:id="rId14"/>
+    <sheet name="20170907" sheetId="17" r:id="rId1"/>
+    <sheet name="20170901" sheetId="16" r:id="rId2"/>
+    <sheet name="20170830" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
+    <sheet name="20170828" sheetId="10" r:id="rId5"/>
+    <sheet name="20170825" sheetId="14" r:id="rId6"/>
+    <sheet name="20170823" sheetId="12" r:id="rId7"/>
+    <sheet name="20170817" sheetId="13" r:id="rId8"/>
+    <sheet name="20170815" sheetId="9" r:id="rId9"/>
+    <sheet name="20170811" sheetId="8" r:id="rId10"/>
+    <sheet name="20170809" sheetId="7" r:id="rId11"/>
+    <sheet name="20170808" sheetId="6" r:id="rId12"/>
+    <sheet name="20170807" sheetId="2" r:id="rId13"/>
+    <sheet name="20170804" sheetId="5" r:id="rId14"/>
+    <sheet name="20170803" sheetId="4" r:id="rId15"/>
+    <sheet name="20170802" sheetId="3" r:id="rId16"/>
+    <sheet name="20170731" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,43 +1125,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击编辑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单树展示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>菜单维护的查、改界面及拖拽功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>菜单维护的拖拽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>菜单维护的拖拽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖拽功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双击编辑功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单树展示：</t>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能                                       （计划开发时间：20170831）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询‘所有’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单维护的拖拽删除功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单维护界面的重新整理                                       （计划开发时间：下周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌维护树界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域维护树界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170828——20170829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170831——201709019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于树的增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infomanager的打包发布及相关文档的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成               √打包发布</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯报表查看界面                                       （计划开发时间：20170908）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1377,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1233,7 +1421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1293,13 +1481,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1520,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,15 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3011,20 +3237,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3037,60 +3264,68 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3106,6 +3341,348 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3140,63 +3717,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3213,7 +3790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F153"/>
   <sheetViews>
@@ -3248,63 +3825,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -3356,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3391,63 +3968,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3464,7 +4041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3499,63 +4076,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3572,7 +4149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3607,63 +4184,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3682,22 +4259,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F77"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3714,92 +4291,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>74</v>
+      <c r="F3" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
+      <c r="B13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>20170830</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3838,63 +4428,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3906,11 +4496,291 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" activeCellId="1" sqref="C27 M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>10088.16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>10088.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>174760.46</v>
+      </c>
+      <c r="C3" s="8">
+        <v>174760.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>7229.8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7229.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>11114</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>11151.8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>11151.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>76241.62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>76241.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>11231.76</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11231.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>490917.25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>490917.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>17763.439999999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>17763.439999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>30947.62</v>
+      </c>
+      <c r="C11" s="8">
+        <v>30947.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>13805.78</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13805.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>51188.74</v>
+      </c>
+      <c r="C13" s="7">
+        <v>51188.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f>SUM(A2:A13)</f>
+        <v>906440.42999999993</v>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C2:C13)</f>
+        <v>906440.42999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>906440.44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>906440.43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>906440.43500000006</v>
+      </c>
+      <c r="C21" s="13">
+        <v>906440.43500000006</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F77"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3945,63 +4815,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
+      <c r="F3" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4017,7 +4887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4047,68 +4917,68 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>62</v>
+      <c r="F3" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4124,7 +4994,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
@@ -4159,63 +5136,63 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="5"/>
     </row>
   </sheetData>
@@ -4230,346 +5207,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,28 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9120" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
+    <workbookView xWindow="0" yWindow="10488" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="20170907" sheetId="17" r:id="rId1"/>
-    <sheet name="20170901" sheetId="16" r:id="rId2"/>
-    <sheet name="20170830" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
-    <sheet name="20170828" sheetId="10" r:id="rId5"/>
-    <sheet name="20170825" sheetId="14" r:id="rId6"/>
-    <sheet name="20170823" sheetId="12" r:id="rId7"/>
-    <sheet name="20170817" sheetId="13" r:id="rId8"/>
-    <sheet name="20170815" sheetId="9" r:id="rId9"/>
-    <sheet name="20170811" sheetId="8" r:id="rId10"/>
-    <sheet name="20170809" sheetId="7" r:id="rId11"/>
-    <sheet name="20170808" sheetId="6" r:id="rId12"/>
-    <sheet name="20170807" sheetId="2" r:id="rId13"/>
-    <sheet name="20170804" sheetId="5" r:id="rId14"/>
-    <sheet name="20170803" sheetId="4" r:id="rId15"/>
-    <sheet name="20170802" sheetId="3" r:id="rId16"/>
-    <sheet name="20170731" sheetId="1" r:id="rId17"/>
+    <sheet name="20170914" sheetId="20" r:id="rId1"/>
+    <sheet name="20170912" sheetId="19" r:id="rId2"/>
+    <sheet name="20170911" sheetId="18" r:id="rId3"/>
+    <sheet name="20170907" sheetId="17" r:id="rId4"/>
+    <sheet name="20170901" sheetId="16" r:id="rId5"/>
+    <sheet name="20170830" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
+    <sheet name="20170828" sheetId="10" r:id="rId8"/>
+    <sheet name="20170825" sheetId="14" r:id="rId9"/>
+    <sheet name="20170823" sheetId="12" r:id="rId10"/>
+    <sheet name="20170817" sheetId="13" r:id="rId11"/>
+    <sheet name="20170815" sheetId="9" r:id="rId12"/>
+    <sheet name="20170811" sheetId="8" r:id="rId13"/>
+    <sheet name="20170809" sheetId="7" r:id="rId14"/>
+    <sheet name="20170808" sheetId="6" r:id="rId15"/>
+    <sheet name="20170807" sheetId="2" r:id="rId16"/>
+    <sheet name="20170804" sheetId="5" r:id="rId17"/>
+    <sheet name="20170803" sheetId="4" r:id="rId18"/>
+    <sheet name="20170802" sheetId="3" r:id="rId19"/>
+    <sheet name="20170731" sheetId="1" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1318,6 +1321,48 @@
   </si>
   <si>
     <t>通讯报表查看界面                                       （计划开发时间：20170908）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成               √打包发布</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成全部文档的编写（200170912）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档编写完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pentaho安装文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pentaho本地安装（2017.09.15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1544,6 +1589,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,18 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3235,23 +3280,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="F4:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3268,64 +3418,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>97</v>
+      <c r="F3" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3337,10 +3487,226 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
@@ -3375,16 +3741,16 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -3392,46 +3758,46 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -3458,7 +3824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F49"/>
   <sheetViews>
@@ -3493,63 +3859,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -3575,7 +3941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3610,63 +3976,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3682,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3717,63 +4083,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3790,7 +4156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F153"/>
   <sheetViews>
@@ -3825,63 +4191,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -3933,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -3968,63 +4334,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4041,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4076,63 +4442,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4149,7 +4515,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="F4:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4184,63 +4654,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4257,7 +4727,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
@@ -4292,63 +4976,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" ht="166.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -4357,7 +5041,7 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4368,7 +5052,7 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
@@ -4377,7 +5061,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4390,393 +5074,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" activeCellId="1" sqref="C27 M28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>10088.16</v>
-      </c>
-      <c r="C2" s="8">
-        <v>10088.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>174760.46</v>
-      </c>
-      <c r="C3" s="8">
-        <v>174760.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>7229.8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7229.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>11114</v>
-      </c>
-      <c r="C5" s="9">
-        <v>11114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>11151.8</v>
-      </c>
-      <c r="C6" s="8">
-        <v>11151.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>76241.62</v>
-      </c>
-      <c r="C7" s="8">
-        <v>76241.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>11231.76</v>
-      </c>
-      <c r="C8" s="8">
-        <v>11231.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>490917.25</v>
-      </c>
-      <c r="C9" s="8">
-        <v>490917.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>17763.439999999999</v>
-      </c>
-      <c r="C10" s="8">
-        <v>17763.439999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>30947.62</v>
-      </c>
-      <c r="C11" s="8">
-        <v>30947.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>13805.78</v>
-      </c>
-      <c r="C12" s="8">
-        <v>13805.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>51188.74</v>
-      </c>
-      <c r="C13" s="7">
-        <v>51188.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <f>SUM(A2:A13)</f>
-        <v>906440.42999999993</v>
-      </c>
-      <c r="C15" s="10">
-        <f>SUM(C2:C13)</f>
-        <v>906440.42999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>906440.44</v>
-      </c>
-      <c r="C18" s="11">
-        <v>906440.43</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>906440.43500000006</v>
-      </c>
-      <c r="C21" s="13">
-        <v>906440.43500000006</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F77"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4815,63 +5112,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4883,11 +5180,291 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" activeCellId="1" sqref="C27 M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>10088.16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>10088.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>174760.46</v>
+      </c>
+      <c r="C3" s="8">
+        <v>174760.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>7229.8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7229.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>11114</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>11151.8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>11151.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>76241.62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>76241.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>11231.76</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11231.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>490917.25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>490917.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>17763.439999999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>17763.439999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>30947.62</v>
+      </c>
+      <c r="C11" s="8">
+        <v>30947.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>13805.78</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13805.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>51188.74</v>
+      </c>
+      <c r="C13" s="7">
+        <v>51188.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f>SUM(A2:A13)</f>
+        <v>906440.42999999993</v>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C2:C13)</f>
+        <v>906440.42999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>906440.44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>906440.43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>906440.43500000006</v>
+      </c>
+      <c r="C21" s="13">
+        <v>906440.43500000006</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F77"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4922,278 +5499,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>69</v>
+      <c r="F3" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="5"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10488" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
+    <workbookView xWindow="0" yWindow="10944" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="20170914" sheetId="20" r:id="rId1"/>
-    <sheet name="20170912" sheetId="19" r:id="rId2"/>
-    <sheet name="20170911" sheetId="18" r:id="rId3"/>
-    <sheet name="20170907" sheetId="17" r:id="rId4"/>
-    <sheet name="20170901" sheetId="16" r:id="rId5"/>
-    <sheet name="20170830" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
-    <sheet name="20170828" sheetId="10" r:id="rId8"/>
-    <sheet name="20170825" sheetId="14" r:id="rId9"/>
-    <sheet name="20170823" sheetId="12" r:id="rId10"/>
-    <sheet name="20170817" sheetId="13" r:id="rId11"/>
-    <sheet name="20170815" sheetId="9" r:id="rId12"/>
-    <sheet name="20170811" sheetId="8" r:id="rId13"/>
-    <sheet name="20170809" sheetId="7" r:id="rId14"/>
-    <sheet name="20170808" sheetId="6" r:id="rId15"/>
-    <sheet name="20170807" sheetId="2" r:id="rId16"/>
-    <sheet name="20170804" sheetId="5" r:id="rId17"/>
-    <sheet name="20170803" sheetId="4" r:id="rId18"/>
-    <sheet name="20170802" sheetId="3" r:id="rId19"/>
-    <sheet name="20170731" sheetId="1" r:id="rId20"/>
+    <sheet name="20170921" sheetId="21" r:id="rId1"/>
+    <sheet name="20170914" sheetId="20" r:id="rId2"/>
+    <sheet name="20170912" sheetId="19" r:id="rId3"/>
+    <sheet name="20170911" sheetId="18" r:id="rId4"/>
+    <sheet name="20170907" sheetId="17" r:id="rId5"/>
+    <sheet name="20170901" sheetId="16" r:id="rId6"/>
+    <sheet name="20170830" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId8"/>
+    <sheet name="20170828" sheetId="10" r:id="rId9"/>
+    <sheet name="20170825" sheetId="14" r:id="rId10"/>
+    <sheet name="20170823" sheetId="12" r:id="rId11"/>
+    <sheet name="20170817" sheetId="13" r:id="rId12"/>
+    <sheet name="20170815" sheetId="9" r:id="rId13"/>
+    <sheet name="20170811" sheetId="8" r:id="rId14"/>
+    <sheet name="20170809" sheetId="7" r:id="rId15"/>
+    <sheet name="20170808" sheetId="6" r:id="rId16"/>
+    <sheet name="20170807" sheetId="2" r:id="rId17"/>
+    <sheet name="20170804" sheetId="5" r:id="rId18"/>
+    <sheet name="20170803" sheetId="4" r:id="rId19"/>
+    <sheet name="20170802" sheetId="3" r:id="rId20"/>
+    <sheet name="20170731" sheetId="1" r:id="rId21"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,6 +1364,36 @@
   </si>
   <si>
     <t>pentaho本地安装（2017.09.15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色维护改造完成                        √人员维护改造完成                   √角色菜单维护改造完成         √shiro安全机制的登录页面     √前端引入Jasmine单元测试模块                                               √表格分页实现                        √深入表单校验                       √登录页面引入谷歌验证码     √彻底消除JSP页面                 √国际化                                 √品牌维护界面完成               √区域维护界面完成               √打包发布                                            √pentaho安装文档整理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 餐品部门、顾客档次、顾客人数、商圈和日期维护的查询功能完成…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐品部门、顾客档次、顾客人数、商圈和日期维护的其他功能完成…（2017.09.22）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3283,16 +3314,16 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -3314,10 +3345,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>72</v>
@@ -3326,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -3364,7 +3395,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3420,19 +3451,19 @@
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -3470,7 +3501,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -3521,25 +3552,25 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>62</v>
+      <c r="F3" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -3547,42 +3578,42 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="24"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="25"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3599,6 +3630,113 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
@@ -3706,7 +3844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
@@ -3824,7 +3962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F49"/>
   <sheetViews>
@@ -3941,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4048,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4156,7 +4294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F153"/>
   <sheetViews>
@@ -4299,7 +4437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4348,114 +4486,6 @@
       </c>
       <c r="F3" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -4525,11 +4555,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -4550,9 +4580,11 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C4" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>72</v>
@@ -4599,7 +4631,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4620,6 +4652,114 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4728,6 +4868,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="F4:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4834,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -4941,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
@@ -5077,7 +5321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -5184,7 +5428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -5341,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F77"/>
   <sheetViews>
@@ -5462,111 +5706,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ IDEA 2016.2.5\MyWorkSpace\Infomanager\_Development_Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10944" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
   </bookViews>
   <sheets>
     <sheet name="20170921" sheetId="21" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="20170802" sheetId="3" r:id="rId20"/>
     <sheet name="20170731" sheetId="1" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,18 +1389,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 餐品部门、顾客档次、顾客人数、商圈和日期维护的查询功能完成…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐品部门、顾客档次、顾客人数、商圈和日期维护的其他功能完成…（2017.09.22）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                 ◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>餐品部门校验功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        ◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通讯报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      ◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">门店维护 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 顾客档次、顾客人数的校验功能…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1693,7 +1779,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE6E32-058E-4541-8D7F-A2C0C02D3190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE6E32-058E-4541-8D7F-A2C0C02D3190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1823,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B3187-B552-4A15-B10D-B9EA6E2FAD49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29B3187-B552-4A15-B10D-B9EA6E2FAD49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1867,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D507E9D-CA8C-4222-9225-6F501DFB23C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D507E9D-CA8C-4222-9225-6F501DFB23C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1916,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F505ABB6-AE65-4EB3-84FF-A38A9A414647}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F505ABB6-AE65-4EB3-84FF-A38A9A414647}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1960,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935CD175-1307-4509-A89A-4D943E4E6D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{935CD175-1307-4509-A89A-4D943E4E6D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +2004,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF533A00-0269-4AD5-96DB-AC1434ED949C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF533A00-0269-4AD5-96DB-AC1434ED949C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +2048,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DFA245-7C62-4521-8112-7D8825924A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77DFA245-7C62-4521-8112-7D8825924A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2092,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C69C8-0C10-434E-9DA2-7ED0379F9843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF8C69C8-0C10-434E-9DA2-7ED0379F9843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2136,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A172B00A-5DD5-464A-81E8-1063EC0151BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A172B00A-5DD5-464A-81E8-1063EC0151BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2185,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2234,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2283,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2327,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2376,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2420,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2464,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2513,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2562,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2606,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2650,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2699,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2743,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2792,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2836,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2885,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2929,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2978,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +3022,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +3071,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,13 +3400,13 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="29.5546875" customWidth="1"/>
     <col min="6" max="6" width="28.77734375" customWidth="1"/>
@@ -3344,14 +3430,12 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>6</v>
@@ -3395,7 +3479,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="167.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3412,6 +3496,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
+++ b/_Development_Schedule/陶鹏飞的工作情况汇总表.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
+    <workbookView xWindow="0" yWindow="13680" windowWidth="16356" windowHeight="7716" tabRatio="798"/>
   </bookViews>
   <sheets>
-    <sheet name="20170921" sheetId="21" r:id="rId1"/>
+    <sheet name="当前" sheetId="21" r:id="rId1"/>
     <sheet name="20170914" sheetId="20" r:id="rId2"/>
     <sheet name="20170912" sheetId="19" r:id="rId3"/>
     <sheet name="20170911" sheetId="18" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
   <si>
     <t>团队需要做的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,6 +1367,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 顾客档次、顾客人数的校验功能…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infomanager后台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentaho仪表盘移动端（滚动条）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前20餐品分析滚动条问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√前20餐品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没引入测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、首页仪表盘滚动条问题的解决                   2、趋势分析滚动条问题的解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bi系统报表（PRD版本6.0.1）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1408,18 +1465,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                 ◆</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">前端整合Karma和Jasmine自动化单元测试                                                              ◆前端引入MD5加密模块                                                       ◆餐品部门校验功能                                                            ◆通讯报表                                                                         ◆门店维护            </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">首页仪表盘                                                                      ◆营业总览                                                                                    ◆分类销售分析                                                                   ◆趋势分析             </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表3级（3级以上）下钻的研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◆在报表下钻的基础上完成“”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>餐品部门校验功能</t>
+      </rPr>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -1428,21 +1519,33 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                        ◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通讯报表</t>
-    </r>
+      </rPr>
+      <t>” 的功能                              ◆PRD冻结表头功能                                                             ◆PRD报表查询菜单的伸缩功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√报表的n级下钻完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">simphony报表（PRD版本3.8.0）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√simphony内置生成报表方式已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel导出合并列不显示（时间：2017.10.19）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1450,20 +1553,8 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                      ◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">门店维护 </t>
+      </rPr>
+      <t>◆PDF导出中文不显示</t>
     </r>
     <r>
       <rPr>
@@ -1474,12 +1565,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 顾客档次、顾客人数的校验功能…</t>
+      <t xml:space="preserve">                                                           ◆Excel导出合并列不显示                                                     ◆Excel导出线条不显示                                                        ◆Excel导出背景色不显示                                                                                   </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,8 +1655,16 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,6 +1674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1807,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1716,9 +1829,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1727,16 +1858,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1916,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE6E32-058E-4541-8D7F-A2C0C02D3190}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE6E32-058E-4541-8D7F-A2C0C02D3190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1960,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F29B3187-B552-4A15-B10D-B9EA6E2FAD49}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29B3187-B552-4A15-B10D-B9EA6E2FAD49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +2004,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D507E9D-CA8C-4222-9225-6F501DFB23C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D507E9D-CA8C-4222-9225-6F501DFB23C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +2053,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F505ABB6-AE65-4EB3-84FF-A38A9A414647}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F505ABB6-AE65-4EB3-84FF-A38A9A414647}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +2097,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{935CD175-1307-4509-A89A-4D943E4E6D5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935CD175-1307-4509-A89A-4D943E4E6D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2141,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF533A00-0269-4AD5-96DB-AC1434ED949C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF533A00-0269-4AD5-96DB-AC1434ED949C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2185,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77DFA245-7C62-4521-8112-7D8825924A66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DFA245-7C62-4521-8112-7D8825924A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2229,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF8C69C8-0C10-434E-9DA2-7ED0379F9843}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C69C8-0C10-434E-9DA2-7ED0379F9843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2273,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A172B00A-5DD5-464A-81E8-1063EC0151BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A172B00A-5DD5-464A-81E8-1063EC0151BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2322,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D00B6F1-87E2-424B-838A-6D6408F4849A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2371,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D837706-3F3B-4D8D-842A-E80B9FFF66C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2420,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1072C1A-0E00-40A6-8CFA-A049D9B387D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2464,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F83468-EFDF-4A72-853D-BD01DAAD750D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2513,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFC97A4-6813-41C7-A501-A25F3A3FE22D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2557,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669D82-29A8-4E7B-A30D-9184C0A33683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2601,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65149E8-A2A5-4CE0-BDC5-8C805DB5CDF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2650,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED971BA-6165-476C-A7DD-50B23914ED60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2699,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C80CAF-8276-442C-B9ED-71AD2BEE2806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2743,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D87ED80-AC1D-44BA-BBF2-2B08D3D38D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2787,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5497D7F-D3AD-484D-ADC3-BF69F3573435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2836,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30785DBC-D477-4F6D-85FF-69E7FAD8303B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2880,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC253909-B0B8-4466-BFCC-EF9266ABB0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2929,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29308E6-D238-44F3-A445-A1E7AF4A6186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2973,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813358E5-39AF-4DFA-A660-8072A845A3CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +3022,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBC662D-1770-4018-AE59-2AE46DE64F7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +3066,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E1CA9C-29EF-411B-8A59-A7E9DE86E494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3115,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6FE73-4412-4286-B8ED-B9929FAE1935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +3159,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E780C1-A6C9-4384-BE78-4B56F0BF73AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3208,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89BEAF6-3F0D-4C88-9236-EB0EC451EEB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,102 +3534,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F10"/>
+  <dimension ref="A3:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="59" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>6</v>
+      <c r="C4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+        <v>114</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:6" ht="167.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="21"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="28">
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
     <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="G11:G17"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="F11:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,63 +3954,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3642,63 +4061,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3749,63 +4168,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3856,63 +4275,63 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5"/>
     </row>
   </sheetData>
@@ -3964,63 +4383,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -4082,63 +4501,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -4199,63 +4618,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4306,63 +4725,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4414,63 +4833,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -4557,63 +4976,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4635,7 +5054,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F10"/>
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4665,63 +5084,63 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4771,63 +5190,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4879,63 +5298,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4957,7 +5376,7 @@
   <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F10"/>
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4987,61 +5406,61 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5061,7 +5480,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F9"/>
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5092,63 +5511,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5199,63 +5618,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5305,63 +5724,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="166.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -5370,7 +5789,7 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="36" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5381,7 +5800,7 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
@@ -5390,7 +5809,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5441,63 +5860,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5705,63 +6124,63 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="193.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
